--- a/rule_to_observe.xlsx
+++ b/rule_to_observe.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\msme_new\synthetic_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\msme_new\synthetic_data\code_update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E37BDE-70C3-4EA7-8037-C801C9C017CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF3C701-6332-43CC-9FA6-EA94E3C96251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="12825" xr2:uid="{24AC5495-5990-4028-81B6-18BFEA0B0BC7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="12825" activeTab="1" xr2:uid="{24AC5495-5990-4028-81B6-18BFEA0B0BC7}"/>
   </bookViews>
   <sheets>
-    <sheet name="field_req" sheetId="1" r:id="rId1"/>
-    <sheet name="acc_type" sheetId="2" r:id="rId2"/>
-    <sheet name="occu" sheetId="3" r:id="rId3"/>
+    <sheet name="requirement" sheetId="7" r:id="rId1"/>
+    <sheet name="profile_tbl" sheetId="1" r:id="rId2"/>
+    <sheet name="transaction_tbl" sheetId="4" r:id="rId3"/>
+    <sheet name="occu" sheetId="3" r:id="rId4"/>
+    <sheet name="state" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">acc_type!$A$1:$D$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">occu!$A$1:$A$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">occu!$A$1:$A$119</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="213">
   <si>
     <t>No</t>
   </si>
@@ -59,33 +60,15 @@
     <t>range</t>
   </si>
   <si>
-    <t>cust_id</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>random 8 digit number</t>
-  </si>
-  <si>
-    <t>10000000 - 99999999</t>
-  </si>
-  <si>
     <t>Customer_Acc</t>
   </si>
   <si>
-    <t>random 14 digit number</t>
-  </si>
-  <si>
-    <t>10000000000000 - 99999999999999</t>
-  </si>
-  <si>
     <t>Stated_Occupation</t>
   </si>
   <si>
-    <t>based on listing</t>
-  </si>
-  <si>
     <t>Account_Type</t>
   </si>
   <si>
@@ -107,18 +90,6 @@
     <t>Avg_Balance</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>random 7 digit number</t>
-  </si>
-  <si>
-    <t>100 - 1000000</t>
-  </si>
-  <si>
-    <t>Balance</t>
-  </si>
-  <si>
     <t>HOUSEWIFE</t>
   </si>
   <si>
@@ -476,56 +447,375 @@
     <t>Optometrists and Ophthalmic Opticians</t>
   </si>
   <si>
-    <t>based on listing occu</t>
-  </si>
-  <si>
-    <t>based on listing acc_type</t>
-  </si>
-  <si>
-    <t>random 2 digit number</t>
-  </si>
-  <si>
-    <t>random 3 digit number</t>
-  </si>
-  <si>
-    <t>CASA</t>
-  </si>
-  <si>
-    <t>IHSAN</t>
-  </si>
-  <si>
-    <t>GIA</t>
-  </si>
-  <si>
-    <t>GIA AWFAR</t>
-  </si>
-  <si>
-    <t>Al-AWFAR</t>
-  </si>
-  <si>
-    <t>STDT</t>
-  </si>
-  <si>
-    <t>WAFIYAH</t>
-  </si>
-  <si>
-    <t>iGain</t>
-  </si>
-  <si>
-    <t>TDT</t>
+    <t>Transaction_ID</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Counterparty_Account</t>
+  </si>
+  <si>
+    <t>Counterparty_Name</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datetime (ISO 8601) </t>
+  </si>
+  <si>
+    <t>The exact date and time of the transaction in UTC.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>2025-09-09T14:30:05Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decimal (2 d.p.) </t>
+  </si>
+  <si>
+    <t>The monetary value of the transaction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String </t>
+  </si>
+  <si>
+    <t>The direction of the transaction. Enum: Credit or Debit.</t>
+  </si>
+  <si>
+    <t>Name of the sender (for credits) or receiver (for debits).</t>
+  </si>
+  <si>
+    <t>The method or channel used for the transaction.</t>
+  </si>
+  <si>
+    <t>credit or debit</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>within jan-2024 to sept 2025</t>
+  </si>
+  <si>
+    <t>alphanumeric</t>
+  </si>
+  <si>
+    <t>TXN_8c3d9b1c3e5</t>
+  </si>
+  <si>
+    <t>A unique random 15 alphanumeric characters with prefix TXN_</t>
+  </si>
+  <si>
+    <t>CACC_8a3d9b1</t>
+  </si>
+  <si>
+    <t>CUST_8a3d9</t>
+  </si>
+  <si>
+    <t>CA or SA</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>DuitNOW</t>
+  </si>
+  <si>
+    <t>{QR P2P,DuitNOW,Credit Transfer,QR POS,Other}</t>
+  </si>
+  <si>
+    <t>Customer_ID</t>
+  </si>
+  <si>
+    <t>Location_State</t>
+  </si>
+  <si>
+    <t>Perlis</t>
+  </si>
+  <si>
+    <t>Johor</t>
+  </si>
+  <si>
+    <t>Kedah</t>
+  </si>
+  <si>
+    <t>Kelantan</t>
+  </si>
+  <si>
+    <t>Melaka</t>
+  </si>
+  <si>
+    <t>Negeri Sembilan</t>
+  </si>
+  <si>
+    <t>Pahang</t>
+  </si>
+  <si>
+    <t>Pulau Pinang</t>
+  </si>
+  <si>
+    <t>Perak</t>
+  </si>
+  <si>
+    <t>Selangor</t>
+  </si>
+  <si>
+    <t>Terengganu</t>
+  </si>
+  <si>
+    <t>Sabah</t>
+  </si>
+  <si>
+    <t>Sarawak</t>
+  </si>
+  <si>
+    <t>WP Labuan</t>
+  </si>
+  <si>
+    <t>WP Putrajaya</t>
+  </si>
+  <si>
+    <t>WP KL</t>
+  </si>
+  <si>
+    <t>refer to state tab</t>
+  </si>
+  <si>
+    <t>refer to occu tab</t>
+  </si>
+  <si>
+    <t>Data Specification: Transaction Behaviour Engine</t>
+  </si>
+  <si>
+    <t>Objective: To define the data requirements for a project aimed at identifying potential entrepreneurs among individual bank account holders through the analysis of their transaction behaviour.</t>
+  </si>
+  <si>
+    <t>1. Overview &amp; Confidentiality</t>
+  </si>
+  <si>
+    <t>This document specifies the datasets required for the Transaction Behaviour Engine. All data provided must be handled with the strictest confidentiality and in accordance with all applicable data privacy regulations. Personally Identifiable Information (PII) should be anonymized where possible, using a consistent unique identifier (Customer_ID) to link datasets.</t>
+  </si>
+  <si>
+    <t>2. Required Datasets</t>
+  </si>
+  <si>
+    <t>Dataset A: Customer Transaction History</t>
+  </si>
+  <si>
+    <t>This file should contain all transaction records for the specified period.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">● </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="GoogleSansText-Bold"/>
+      </rPr>
+      <t xml:space="preserve">Time Period: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="GoogleSansText-Regular"/>
+      </rPr>
+      <t>Last 12 months of data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">● </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="GoogleSansText-Bold"/>
+      </rPr>
+      <t xml:space="preserve">File Name Convention: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="GoogleSansText-Regular"/>
+      </rPr>
+      <t>TRANSACTION_HISTORY_YYYYMMDD.csv</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">● </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="GoogleSansText-Bold"/>
+      </rPr>
+      <t xml:space="preserve">File Format: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="GoogleSansText-Regular"/>
+      </rPr>
+      <t>CSV</t>
+    </r>
+  </si>
+  <si>
+    <t>This file should contain the demographic and account-level details for the customers included in Dataset A</t>
+  </si>
+  <si>
+    <t>Population Scope: The dataset should include data for a minimum of 20000 unique individual customers. The accounts included should be limited to Current Accounts and/or Savings Accounts (CASA).</t>
+  </si>
+  <si>
+    <t>File Name Convention: CUSTOMER_PROFILE_YYYYMMDD.csv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="GoogleSansText-Bold"/>
+      </rPr>
+      <t xml:space="preserve">File Format: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="GoogleSansText-Regular"/>
+      </rPr>
+      <t>CSV</t>
+    </r>
+  </si>
+  <si>
+    <t>We require two primary datasets as detailed in sheet profile_tbl and transaction_tbl</t>
+  </si>
+  <si>
+    <t>The average end-of-day balance over the last 12 months.</t>
+  </si>
+  <si>
+    <t>The type or product name of the customer's account. Current Account or Saving Account</t>
+  </si>
+  <si>
+    <t>The number of months the customer's account has been active.random 3 digit number</t>
+  </si>
+  <si>
+    <t>The state where the customer resides in Malaysia</t>
+  </si>
+  <si>
+    <t>The customer's occupation as declared to the bank.</t>
+  </si>
+  <si>
+    <t>The age of the customer in years. Random 2 digit number</t>
+  </si>
+  <si>
+    <t>Dataset B: Customer Profile</t>
+  </si>
+  <si>
+    <t>A unique random 12 alphanumeric characters identifier with prefix CACC_. Each transaction shall match Customer_Acc in profile_tbl</t>
+  </si>
+  <si>
+    <t>A unique random 12 alphanumeric characters identifier with prefix CACC_. Each transaction shall match Customer_Acc in transaction_tbl</t>
+  </si>
+  <si>
+    <t>A unique random 10 alphanumeric characters identifier with prefix CUST_. Each Customer_ID can have more than one Customer_Acc</t>
+  </si>
+  <si>
+    <t>any names or company name which provide services</t>
+  </si>
+  <si>
+    <t>Zamani Rasyid or ABC Trading</t>
+  </si>
+  <si>
+    <t>Account number of the other party involved in the transaction. A unique random 12 alphanumeric characters identifier with prefix CACC_. Each transaction shall match Customer_Acc in profile_tbl</t>
+  </si>
+  <si>
+    <t>1 - 10000</t>
+  </si>
+  <si>
+    <t>100 - 100000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="GoogleSansText-Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="GoogleSans-Bold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="GoogleSansText-Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="GoogleSansText-Bold"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="GoogleSansText-Bold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="GoogleSansText-Bold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="GoogleSansText-Bold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="ArialMT"/>
     </font>
   </fonts>
   <fills count="2">
@@ -536,7 +826,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -544,13 +834,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,244 +1246,289 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93E2CA8-526A-4A20-9C82-79A85AA8C68B}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649B6EE7-EAAD-4742-AFEA-0775A2C19816}">
+  <dimension ref="B2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="153.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
+    <row r="2" spans="2:2" ht="30">
+      <c r="B2" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="17.399999999999999">
+      <c r="B5" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="42">
+      <c r="B6" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="17.399999999999999">
+      <c r="B8" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="7" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;G&amp;R&amp;"Calibri"&amp;12&amp;K000000 CONFIDENTIAL&amp;1#_x000D_</oddHeader>
-  </headerFooter>
-  <legacyDrawingHF r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C298B566-9C37-487B-8DB7-831A5F1F0EDA}">
-  <dimension ref="A1:A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93E2CA8-526A-4A20-9C82-79A85AA8C68B}">
+  <dimension ref="B2:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="2" spans="2:7" ht="15.6">
+      <c r="B2" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="2:7" customFormat="1">
+      <c r="B5" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="43.2">
+      <c r="B10" s="17">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>156</v>
-      </c>
-    </row>
+      <c r="G10" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="43.2">
+      <c r="B11" s="17">
+        <v>2</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="17">
+        <v>3</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="17">
+        <v>4</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="17">
+        <v>5</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="28.8">
+      <c r="B15" s="17">
+        <v>6</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="28.8">
+      <c r="B16" s="17">
+        <v>7</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="27.6">
+      <c r="B17" s="17">
+        <v>8</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1500.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" customFormat="1"/>
+    <row r="22" spans="2:7" customFormat="1"/>
+    <row r="23" spans="2:7" customFormat="1"/>
+    <row r="24" spans="2:7" customFormat="1"/>
+    <row r="25" spans="2:7" customFormat="1"/>
+    <row r="26" spans="2:7" customFormat="1"/>
+    <row r="27" spans="2:7" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -1132,611 +1539,879 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D176B2-33B8-4074-A1E1-37179B0CA77F}">
+  <dimension ref="B1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15.6">
+      <c r="B1" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="C6" s="11"/>
+      <c r="E6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="43.2">
+      <c r="B8" s="22">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="28.8">
+      <c r="B9" s="22">
+        <v>2</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="22">
+        <v>3</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="22">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="9">
+        <v>150.75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="27.6">
+      <c r="B12" s="22">
+        <v>5</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="27.6">
+      <c r="B13" s="22">
+        <v>6</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="28.8">
+      <c r="B14" s="22">
+        <v>7</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="73.2" customHeight="1">
+      <c r="B15" s="22">
+        <v>8</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FE427F-73D7-465C-83D7-7306B5ECF9D1}">
   <dimension ref="A1:A119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="50.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1748,6 +2423,104 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC2698E-A5A4-4E77-91F8-B2C70B9F548E}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{89bd7e0e-4478-421e-a7b1-89c7d981a8f7}" enabled="1" method="Standard" siteId="{ff276141-0e7c-4229-9443-bcdaf2783ded}" contentBits="5" removed="0"/>
